--- a/proj_wikipedia/records_athletics/records_athletics_indoorM.xlsx
+++ b/proj_wikipedia/records_athletics/records_athletics_indoorM.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="112">
   <si>
     <t>Event</t>
   </si>
@@ -35,18 +35,15 @@
     <t>Ref</t>
   </si>
   <si>
-    <t>comp_doorInOut</t>
-  </si>
-  <si>
-    <t>sex</t>
-  </si>
-  <si>
     <t>60 m</t>
   </si>
   <si>
     <t>200 m</t>
   </si>
   <si>
+    <t>300 m</t>
+  </si>
+  <si>
     <t>400 m</t>
   </si>
   <si>
@@ -56,24 +53,27 @@
     <t>800 m</t>
   </si>
   <si>
+    <t>1000 m</t>
+  </si>
+  <si>
     <t>1500 m</t>
   </si>
   <si>
     <t>Mile</t>
   </si>
   <si>
-    <t>2000 m</t>
+    <t>Two miles</t>
   </si>
   <si>
     <t>3000 m</t>
   </si>
   <si>
-    <t>Two miles</t>
-  </si>
-  <si>
     <t>5000 m</t>
   </si>
   <si>
+    <t>10000 m</t>
+  </si>
+  <si>
     <t>60 m hurdles</t>
   </si>
   <si>
@@ -104,187 +104,250 @@
     <t>4x400 m relay</t>
   </si>
   <si>
-    <t>6.82</t>
-  </si>
-  <si>
-    <t>21.90</t>
-  </si>
-  <si>
-    <t>46.96</t>
-  </si>
-  <si>
-    <t>1:15.31</t>
-  </si>
-  <si>
-    <t>1:44.52</t>
-  </si>
-  <si>
-    <t>3:31.76</t>
-  </si>
-  <si>
-    <t>3:54.02</t>
-  </si>
-  <si>
-    <t>4:49.99</t>
-  </si>
-  <si>
-    <t>7:26.15</t>
-  </si>
-  <si>
-    <t>8:04.35</t>
-  </si>
-  <si>
-    <t>12:49.60</t>
+    <t>6.70</t>
+  </si>
+  <si>
+    <t>20.85</t>
+  </si>
+  <si>
+    <t>32.60 OT</t>
+  </si>
+  <si>
+    <t>45.98</t>
+  </si>
+  <si>
+    <t>1:14.97 A</t>
+  </si>
+  <si>
+    <t>1:44.71</t>
+  </si>
+  <si>
+    <t>2:15.50</t>
+  </si>
+  <si>
+    <t>3:32.11</t>
+  </si>
+  <si>
+    <t>3:52.01</t>
+  </si>
+  <si>
+    <t>8:06.48</t>
+  </si>
+  <si>
+    <t>7:24.90</t>
+  </si>
+  <si>
+    <t>12:51.48</t>
+  </si>
+  <si>
+    <t>27:50.29</t>
+  </si>
+  <si>
+    <t>7.7</t>
+  </si>
+  <si>
+    <t>5:13.77 [WB]</t>
+  </si>
+  <si>
+    <t>2.16 m</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>5:20.03</t>
-  </si>
-  <si>
-    <t>6.98 m (2nd jump)</t>
-  </si>
-  <si>
-    <t>6.98 m (3rd jump)</t>
+    <t>7.98 m A</t>
+  </si>
+  <si>
+    <t>16.70 m</t>
   </si>
   <si>
     <t>(60 m), (long jump), (shot put), (high jump) / (60 m hurdles), (pole vault), (1000 m)</t>
   </si>
   <si>
-    <t>Berhane Haile</t>
-  </si>
-  <si>
-    <t>Alemayehu Gudeta</t>
-  </si>
-  <si>
-    <t>Mohammed Aman</t>
-  </si>
-  <si>
-    <t>Haile Gebrselassie</t>
-  </si>
-  <si>
-    <t>Dawit Wolde</t>
-  </si>
-  <si>
-    <t>Kenenisa Bekele</t>
-  </si>
-  <si>
-    <t>Getahun Berhan</t>
-  </si>
-  <si>
-    <t>Lingo Obang Ojulu</t>
-  </si>
-  <si>
-    <t>12 January 1991</t>
-  </si>
-  <si>
-    <t>3 March 1989</t>
-  </si>
-  <si>
-    <t>5 March 1989</t>
-  </si>
-  <si>
-    <t>2 February 2014</t>
-  </si>
-  <si>
-    <t>15 February 2014</t>
+    <t>Paulvince Obuon</t>
+  </si>
+  <si>
+    <t>Carvin Nkanata</t>
+  </si>
+  <si>
+    <t>Charles Gitonga</t>
+  </si>
+  <si>
+    <t>Emmanuel Korir</t>
+  </si>
+  <si>
+    <t>Joseph Mwengi Mutua</t>
+  </si>
+  <si>
+    <t>Kennedy Kimwetich</t>
+  </si>
+  <si>
+    <t>Laban Rotich</t>
+  </si>
+  <si>
+    <t>Edward Cheserek</t>
+  </si>
+  <si>
+    <t>Paul Kipsiele Koech</t>
+  </si>
+  <si>
+    <t>Daniel Komen</t>
+  </si>
+  <si>
+    <t>Mark Bett</t>
+  </si>
+  <si>
+    <t>John Kiplangat Ngeno</t>
+  </si>
+  <si>
+    <t>Mathieu Sawe</t>
+  </si>
+  <si>
+    <t>Benjamin Koech</t>
+  </si>
+  <si>
+    <t>28 January 2005</t>
+  </si>
+  <si>
+    <t>6 March 2004</t>
+  </si>
+  <si>
+    <t>7 December 2013</t>
+  </si>
+  <si>
+    <t>19 February 1995</t>
+  </si>
+  <si>
+    <t>20 January 2017</t>
+  </si>
+  <si>
+    <t>31 January 2004</t>
+  </si>
+  <si>
+    <t>6 February 2000</t>
   </si>
   <si>
     <t>1 February 1998</t>
   </si>
   <si>
-    <t>17 February 2016</t>
-  </si>
-  <si>
-    <t>17 February 2007</t>
-  </si>
-  <si>
-    <t>25 January 1998</t>
+    <t>26 February 2017</t>
   </si>
   <si>
     <t>16 February 2008</t>
   </si>
   <si>
-    <t>20 February 2004</t>
+    <t>6 February 1998</t>
+  </si>
+  <si>
+    <t>19 February 1998</t>
+  </si>
+  <si>
+    <t>10 February 2002</t>
+  </si>
+  <si>
+    <t>31 January 1976</t>
   </si>
   <si>
     <t>13 February 2011</t>
   </si>
   <si>
-    <t>28 January 2012</t>
-  </si>
-  <si>
-    <t>World Championships</t>
-  </si>
-  <si>
-    <t>Russian Winter Meeting</t>
-  </si>
-  <si>
-    <t>Aviva Indoor Grand Prix</t>
+    <t>27 January 2016</t>
+  </si>
+  <si>
+    <t>2 February 1993</t>
+  </si>
+  <si>
+    <t>20 February 1994</t>
+  </si>
+  <si>
+    <t>3 March 1990</t>
+  </si>
+  <si>
+    <t>Kent State Golden Flash Gala</t>
+  </si>
+  <si>
+    <t>Meeting Pas de Calais</t>
+  </si>
+  <si>
+    <t>Cherry &amp; Silver Collegiate Invitational</t>
   </si>
   <si>
     <t>Sparkassen Cup</t>
   </si>
   <si>
-    <t>AIT Grand Prix</t>
-  </si>
-  <si>
-    <t>BW-Bank Meeting</t>
+    <t>Boston University Last Chance Meet</t>
+  </si>
+  <si>
+    <t>AVIVA Indoor Grand Prix</t>
+  </si>
+  <si>
+    <t>GE Galan</t>
   </si>
   <si>
     <t>Indoor Flanders Meeting</t>
   </si>
   <si>
-    <t>Meeting International</t>
-  </si>
-  <si>
-    <t>Gothenburg, Sweden</t>
+    <t>Lumberjack Invitational</t>
+  </si>
+  <si>
+    <t>State College, United States</t>
+  </si>
+  <si>
+    <t>Allston, United States</t>
+  </si>
+  <si>
+    <t>Kent, United States</t>
+  </si>
+  <si>
+    <t>Liévin, France</t>
+  </si>
+  <si>
+    <t>Albuquerque, United States</t>
+  </si>
+  <si>
+    <t>Stuttgart, Germany</t>
+  </si>
+  <si>
+    <t>Boston, United States</t>
+  </si>
+  <si>
+    <t>Birmingham, United Kingdom</t>
   </si>
   <si>
     <t>Budapest, Hungary</t>
   </si>
   <si>
-    <t>Moscow, Russia</t>
-  </si>
-  <si>
-    <t>Birmingham, United Kingdom</t>
-  </si>
-  <si>
-    <t>Stuttgart, Germany</t>
-  </si>
-  <si>
-    <t>Athlone, Ireland</t>
-  </si>
-  <si>
-    <t>Karlsruhe, Germany</t>
+    <t>Stockholm, Sweden</t>
   </si>
   <si>
     <t>Ghent, Belgium</t>
   </si>
   <si>
-    <t>Bordeaux, France</t>
-  </si>
-  <si>
-    <t>[48]</t>
-  </si>
-  <si>
-    <t>[49]</t>
-  </si>
-  <si>
-    <t>[50]</t>
-  </si>
-  <si>
-    <t>[51]</t>
-  </si>
-  <si>
-    <t>[52]</t>
-  </si>
-  <si>
-    <t>indoor</t>
-  </si>
-  <si>
-    <t>m</t>
+    <t>Portland, United States</t>
+  </si>
+  <si>
+    <t>Köln, Germany</t>
+  </si>
+  <si>
+    <t>Flagstaff, United States</t>
+  </si>
+  <si>
+    <t>Lawrence, United States</t>
+  </si>
+  <si>
+    <t>[65]</t>
+  </si>
+  <si>
+    <t>[66]</t>
+  </si>
+  <si>
+    <t>[67]</t>
+  </si>
+  <si>
+    <t>[68]</t>
+  </si>
+  <si>
+    <t>[69][70]</t>
   </si>
 </sst>
 </file>
@@ -357,504 +420,396 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
         <v>30</v>
       </c>
       <c r="C2" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D2" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="E2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="F2" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="G2" t="s">
-        <v>41</v>
-      </c>
-      <c r="H2" t="s">
-        <v>89</v>
-      </c>
-      <c r="I2" t="s">
-        <v>90</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
         <v>31</v>
       </c>
       <c r="C3" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D3" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="E3" t="s">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="F3" t="s">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="G3" t="s">
-        <v>41</v>
-      </c>
-      <c r="H3" t="s">
-        <v>89</v>
-      </c>
-      <c r="I3" t="s">
-        <v>90</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C4" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D4" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="E4" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="F4" t="s">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="G4" t="s">
-        <v>41</v>
-      </c>
-      <c r="H4" t="s">
-        <v>89</v>
-      </c>
-      <c r="I4" t="s">
-        <v>90</v>
+        <v>107</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C5" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D5" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="E5" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="F5" t="s">
-        <v>76</v>
+        <v>95</v>
       </c>
       <c r="G5" t="s">
-        <v>41</v>
-      </c>
-      <c r="H5" t="s">
-        <v>89</v>
-      </c>
-      <c r="I5" t="s">
-        <v>90</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C6" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="D6" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="E6" t="s">
-        <v>68</v>
+        <v>85</v>
       </c>
       <c r="F6" t="s">
-        <v>77</v>
+        <v>96</v>
       </c>
       <c r="G6" t="s">
-        <v>84</v>
-      </c>
-      <c r="H6" t="s">
-        <v>89</v>
-      </c>
-      <c r="I6" t="s">
-        <v>90</v>
+        <v>108</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C7" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="D7" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="E7" t="s">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="F7" t="s">
-        <v>78</v>
+        <v>97</v>
       </c>
       <c r="G7" t="s">
-        <v>85</v>
-      </c>
-      <c r="H7" t="s">
-        <v>89</v>
-      </c>
-      <c r="I7" t="s">
-        <v>90</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C8" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="D8" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="E8" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="F8" t="s">
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="G8" t="s">
-        <v>41</v>
-      </c>
-      <c r="H8" t="s">
-        <v>89</v>
-      </c>
-      <c r="I8" t="s">
-        <v>90</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C9" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="D9" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="E9" t="s">
-        <v>71</v>
+        <v>86</v>
       </c>
       <c r="F9" t="s">
-        <v>80</v>
+        <v>97</v>
       </c>
       <c r="G9" t="s">
-        <v>86</v>
-      </c>
-      <c r="H9" t="s">
-        <v>89</v>
-      </c>
-      <c r="I9" t="s">
-        <v>90</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C10" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="D10" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="E10" t="s">
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="F10" t="s">
-        <v>78</v>
+        <v>98</v>
       </c>
       <c r="G10" t="s">
-        <v>41</v>
-      </c>
-      <c r="H10" t="s">
-        <v>89</v>
-      </c>
-      <c r="I10" t="s">
-        <v>90</v>
+        <v>109</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C11" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="D11" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="E11" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="F11" t="s">
-        <v>81</v>
+        <v>99</v>
       </c>
       <c r="G11" t="s">
-        <v>41</v>
-      </c>
-      <c r="H11" t="s">
-        <v>89</v>
-      </c>
-      <c r="I11" t="s">
-        <v>90</v>
+        <v>110</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B12" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C12" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="D12" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="E12" t="s">
-        <v>69</v>
+        <v>46</v>
       </c>
       <c r="F12" t="s">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="G12" t="s">
-        <v>41</v>
-      </c>
-      <c r="H12" t="s">
-        <v>89</v>
-      </c>
-      <c r="I12" t="s">
-        <v>90</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B13" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C13" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="D13" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="E13" t="s">
-        <v>69</v>
+        <v>89</v>
       </c>
       <c r="F13" t="s">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="G13" t="s">
-        <v>41</v>
-      </c>
-      <c r="H13" t="s">
-        <v>89</v>
-      </c>
-      <c r="I13" t="s">
-        <v>90</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B14" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C14" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="D14" t="s">
-        <v>41</v>
+        <v>76</v>
       </c>
       <c r="E14" t="s">
-        <v>41</v>
+        <v>90</v>
       </c>
       <c r="F14" t="s">
-        <v>41</v>
+        <v>102</v>
       </c>
       <c r="G14" t="s">
-        <v>41</v>
-      </c>
-      <c r="H14" t="s">
-        <v>89</v>
-      </c>
-      <c r="I14" t="s">
-        <v>90</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B15" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C15" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="D15" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="E15" t="s">
-        <v>73</v>
+        <v>46</v>
       </c>
       <c r="F15" t="s">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="G15" t="s">
-        <v>87</v>
-      </c>
-      <c r="H15" t="s">
-        <v>89</v>
-      </c>
-      <c r="I15" t="s">
-        <v>90</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B16" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C16" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="D16" t="s">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="E16" t="s">
-        <v>41</v>
+        <v>90</v>
       </c>
       <c r="F16" t="s">
-        <v>41</v>
+        <v>102</v>
       </c>
       <c r="G16" t="s">
-        <v>41</v>
-      </c>
-      <c r="H16" t="s">
-        <v>89</v>
-      </c>
-      <c r="I16" t="s">
-        <v>90</v>
+        <v>111</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C17" t="s">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="D17" t="s">
-        <v>41</v>
+        <v>79</v>
       </c>
       <c r="E17" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="F17" t="s">
-        <v>41</v>
+        <v>104</v>
       </c>
       <c r="G17" t="s">
-        <v>41</v>
-      </c>
-      <c r="H17" t="s">
-        <v>89</v>
-      </c>
-      <c r="I17" t="s">
-        <v>90</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C18" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="D18" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="E18" t="s">
-        <v>74</v>
+        <v>46</v>
       </c>
       <c r="F18" t="s">
-        <v>83</v>
+        <v>46</v>
       </c>
       <c r="G18" t="s">
-        <v>88</v>
-      </c>
-      <c r="H18" t="s">
-        <v>89</v>
-      </c>
-      <c r="I18" t="s">
-        <v>90</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19">
@@ -862,115 +817,91 @@
         <v>24</v>
       </c>
       <c r="B19" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C19" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="D19" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="E19" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="F19" t="s">
-        <v>83</v>
+        <v>105</v>
       </c>
       <c r="G19" t="s">
-        <v>41</v>
-      </c>
-      <c r="H19" t="s">
-        <v>89</v>
-      </c>
-      <c r="I19" t="s">
-        <v>90</v>
+        <v>46</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B20" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C20" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="D20" t="s">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="E20" t="s">
-        <v>41</v>
+        <v>91</v>
       </c>
       <c r="F20" t="s">
-        <v>41</v>
+        <v>105</v>
       </c>
       <c r="G20" t="s">
-        <v>41</v>
-      </c>
-      <c r="H20" t="s">
-        <v>89</v>
-      </c>
-      <c r="I20" t="s">
-        <v>90</v>
+        <v>46</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B21" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="C21" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="D21" t="s">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="E21" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="F21" t="s">
-        <v>41</v>
+        <v>106</v>
       </c>
       <c r="G21" t="s">
-        <v>41</v>
-      </c>
-      <c r="H21" t="s">
-        <v>89</v>
-      </c>
-      <c r="I21" t="s">
-        <v>90</v>
+        <v>46</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B22" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C22" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D22" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E22" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="F22" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="G22" t="s">
-        <v>41</v>
-      </c>
-      <c r="H22" t="s">
-        <v>89</v>
-      </c>
-      <c r="I22" t="s">
-        <v>90</v>
+        <v>46</v>
       </c>
     </row>
     <row r="23">
@@ -978,86 +909,91 @@
         <v>27</v>
       </c>
       <c r="B23" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C23" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D23" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E23" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F23" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G23" t="s">
-        <v>41</v>
-      </c>
-      <c r="H23" t="s">
-        <v>89</v>
-      </c>
-      <c r="I23" t="s">
-        <v>90</v>
+        <v>46</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B24" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="C24" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="D24" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="E24" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="F24" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="G24" t="s">
-        <v>41</v>
-      </c>
-      <c r="H24" t="s">
-        <v>89</v>
-      </c>
-      <c r="I24" t="s">
-        <v>90</v>
+        <v>46</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25" t="s">
+        <v>46</v>
+      </c>
+      <c r="C25" t="s">
+        <v>46</v>
+      </c>
+      <c r="D25" t="s">
+        <v>46</v>
+      </c>
+      <c r="E25" t="s">
+        <v>46</v>
+      </c>
+      <c r="F25" t="s">
+        <v>46</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
         <v>29</v>
       </c>
-      <c r="B25" t="s">
-        <v>41</v>
-      </c>
-      <c r="C25" t="s">
-        <v>41</v>
-      </c>
-      <c r="D25" t="s">
-        <v>41</v>
-      </c>
-      <c r="E25" t="s">
-        <v>41</v>
-      </c>
-      <c r="F25" t="s">
-        <v>41</v>
-      </c>
-      <c r="G25" t="s">
-        <v>41</v>
-      </c>
-      <c r="H25" t="s">
-        <v>89</v>
-      </c>
-      <c r="I25" t="s">
-        <v>90</v>
+      <c r="B26" t="s">
+        <v>46</v>
+      </c>
+      <c r="C26" t="s">
+        <v>46</v>
+      </c>
+      <c r="D26" t="s">
+        <v>46</v>
+      </c>
+      <c r="E26" t="s">
+        <v>46</v>
+      </c>
+      <c r="F26" t="s">
+        <v>46</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
